--- a/Code/Results/Cases/Case_1_93/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_93/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.8972578809736359</v>
+        <v>0.9999970461623656</v>
       </c>
       <c r="D2">
-        <v>1.03701617855195</v>
+        <v>1.030263256528299</v>
       </c>
       <c r="E2">
-        <v>0.9164809909461364</v>
+        <v>1.003512603051345</v>
       </c>
       <c r="F2">
-        <v>0.8676915893751154</v>
+        <v>0.9980539377174651</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04966493641165</v>
+        <v>1.02955528997503</v>
       </c>
       <c r="J2">
-        <v>0.9230152531614805</v>
+        <v>1.005312350954267</v>
       </c>
       <c r="K2">
-        <v>1.047982825807516</v>
+        <v>1.033074774661431</v>
       </c>
       <c r="L2">
-        <v>0.929241056204648</v>
+        <v>1.006403886417997</v>
       </c>
       <c r="M2">
-        <v>0.8813640088590842</v>
+        <v>1.000962071010937</v>
       </c>
       <c r="N2">
-        <v>0.9756730859597319</v>
+        <v>1.005586813710726</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9110085450654201</v>
+        <v>1.002190696077171</v>
       </c>
       <c r="D3">
-        <v>1.038724435454634</v>
+        <v>1.030606612076188</v>
       </c>
       <c r="E3">
-        <v>0.9281191923950979</v>
+        <v>1.005418250165748</v>
       </c>
       <c r="F3">
-        <v>0.8854079376135569</v>
+        <v>1.000925108801209</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049990288268154</v>
+        <v>1.029546965970127</v>
       </c>
       <c r="J3">
-        <v>0.9342588236415327</v>
+        <v>1.007127342732227</v>
       </c>
       <c r="K3">
-        <v>1.04888469248286</v>
+        <v>1.033227698754684</v>
       </c>
       <c r="L3">
-        <v>0.9397626542125568</v>
+        <v>1.008108944823934</v>
       </c>
       <c r="M3">
-        <v>0.8977524455918255</v>
+        <v>1.003628619941815</v>
       </c>
       <c r="N3">
-        <v>0.9798014457847806</v>
+        <v>1.006228286426888</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9193582179583234</v>
+        <v>1.003602290855779</v>
       </c>
       <c r="D4">
-        <v>1.039807736879433</v>
+        <v>1.030828240658591</v>
       </c>
       <c r="E4">
-        <v>0.9351980826542228</v>
+        <v>1.006644382404554</v>
       </c>
       <c r="F4">
-        <v>0.8961262570290394</v>
+        <v>1.002773591153557</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050183150691575</v>
+        <v>1.029539753632458</v>
       </c>
       <c r="J4">
-        <v>0.9410767194369232</v>
+        <v>1.008294031562883</v>
       </c>
       <c r="K4">
-        <v>1.049448332132398</v>
+        <v>1.0333253549493</v>
       </c>
       <c r="L4">
-        <v>0.9461470959669318</v>
+        <v>1.009204923891012</v>
       </c>
       <c r="M4">
-        <v>0.9076642168343302</v>
+        <v>1.005344591826161</v>
       </c>
       <c r="N4">
-        <v>0.9823042353921555</v>
+        <v>1.006639578476929</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9227529152300883</v>
+        <v>1.004193894425286</v>
       </c>
       <c r="D5">
-        <v>1.040257915130859</v>
+        <v>1.030921280219693</v>
       </c>
       <c r="E5">
-        <v>0.9380785569793918</v>
+        <v>1.007158223888107</v>
       </c>
       <c r="F5">
-        <v>0.9004766131642441</v>
+        <v>1.003548520839981</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050260008368905</v>
+        <v>1.029536283262567</v>
       </c>
       <c r="J5">
-        <v>0.9438463311798617</v>
+        <v>1.008782696506916</v>
       </c>
       <c r="K5">
-        <v>1.049680534409773</v>
+        <v>1.0333660975551</v>
       </c>
       <c r="L5">
-        <v>0.9487414961901035</v>
+        <v>1.009663960881819</v>
       </c>
       <c r="M5">
-        <v>0.9116862249632102</v>
+        <v>1.006063784403245</v>
       </c>
       <c r="N5">
-        <v>0.9833205315127959</v>
+        <v>1.006811593515251</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9233165231143481</v>
+        <v>1.004293121253613</v>
       </c>
       <c r="D6">
-        <v>1.040333195749662</v>
+        <v>1.030936894093018</v>
       </c>
       <c r="E6">
-        <v>0.9385569226776497</v>
+        <v>1.007244405997112</v>
       </c>
       <c r="F6">
-        <v>0.901198504506211</v>
+        <v>1.003678509513614</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050272665724133</v>
+        <v>1.029535674837201</v>
       </c>
       <c r="J6">
-        <v>0.9443060206251229</v>
+        <v>1.008864640454659</v>
       </c>
       <c r="K6">
-        <v>1.049719244074493</v>
+        <v>1.033372920065691</v>
       </c>
       <c r="L6">
-        <v>0.9491721514914349</v>
+        <v>1.009740935846062</v>
       </c>
       <c r="M6">
-        <v>0.9123535670892958</v>
+        <v>1.006184412705869</v>
       </c>
       <c r="N6">
-        <v>0.9834891815847011</v>
+        <v>1.006840423675391</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9194040135936414</v>
+        <v>1.003610203023348</v>
       </c>
       <c r="D7">
-        <v>1.039813772728468</v>
+        <v>1.030829484383891</v>
       </c>
       <c r="E7">
-        <v>0.9352369320688905</v>
+        <v>1.006651254710766</v>
       </c>
       <c r="F7">
-        <v>0.8961849716740578</v>
+        <v>1.002783954247485</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050184194246958</v>
+        <v>1.029539708984831</v>
       </c>
       <c r="J7">
-        <v>0.9411140917510655</v>
+        <v>1.008300568190578</v>
       </c>
       <c r="K7">
-        <v>1.049451453476574</v>
+        <v>1.033325900582437</v>
       </c>
       <c r="L7">
-        <v>0.9461821007713478</v>
+        <v>1.009211064246002</v>
       </c>
       <c r="M7">
-        <v>0.9077185041156134</v>
+        <v>1.005354210280489</v>
       </c>
       <c r="N7">
-        <v>0.982317950923758</v>
+        <v>1.006641880437511</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9020289927595313</v>
+        <v>1.000740052902658</v>
       </c>
       <c r="D8">
-        <v>1.03759808224953</v>
+        <v>1.030379406564799</v>
       </c>
       <c r="E8">
-        <v>0.9205162565860351</v>
+        <v>1.004158087951371</v>
       </c>
       <c r="F8">
-        <v>0.873848694229803</v>
+        <v>0.9990262421512628</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049778551927297</v>
+        <v>1.02955285428455</v>
       </c>
       <c r="J8">
-        <v>0.9269184689326926</v>
+        <v>1.005927361266509</v>
       </c>
       <c r="K8">
-        <v>1.048291754076944</v>
+        <v>1.033126723317438</v>
       </c>
       <c r="L8">
-        <v>0.9328925813043599</v>
+        <v>1.006981654404119</v>
       </c>
       <c r="M8">
-        <v>0.8870601362853683</v>
+        <v>1.001865241835927</v>
       </c>
       <c r="N8">
-        <v>0.9771061905313948</v>
+        <v>1.005804394172819</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8662636881771472</v>
+        <v>0.9956202764081897</v>
       </c>
       <c r="D9">
-        <v>1.03352302800109</v>
+        <v>1.029582245551908</v>
       </c>
       <c r="E9">
-        <v>0.8903482105971483</v>
+        <v>0.9997098096606482</v>
       </c>
       <c r="F9">
-        <v>0.8273730294234342</v>
+        <v>0.9923299142558761</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048928137280377</v>
+        <v>1.02956208100376</v>
       </c>
       <c r="J9">
-        <v>0.8976176628151555</v>
+        <v>1.001684422044947</v>
       </c>
       <c r="K9">
-        <v>1.046094662550544</v>
+        <v>1.032765901988229</v>
       </c>
       <c r="L9">
-        <v>0.9055119080682134</v>
+        <v>1.002995500289088</v>
       </c>
       <c r="M9">
-        <v>0.8440642989151739</v>
+        <v>0.9956418554368396</v>
       </c>
       <c r="N9">
-        <v>0.9663607908343533</v>
+        <v>1.004299033365596</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8369435302844479</v>
+        <v>0.9921622425845256</v>
       </c>
       <c r="D10">
-        <v>1.030688880812371</v>
+        <v>1.029048220613477</v>
       </c>
       <c r="E10">
-        <v>0.8657714029518846</v>
+        <v>0.9967047873794241</v>
       </c>
       <c r="F10">
-        <v>0.7885550794316873</v>
+        <v>0.9878110444644356</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04826943707582</v>
+        <v>1.029558927936093</v>
       </c>
       <c r="J10">
-        <v>0.8735430889903436</v>
+        <v>0.9988121622532348</v>
       </c>
       <c r="K10">
-        <v>1.04452529702452</v>
+        <v>1.032518842347417</v>
       </c>
       <c r="L10">
-        <v>0.883076077681018</v>
+        <v>1.000296919877218</v>
       </c>
       <c r="M10">
-        <v>0.8081854291398575</v>
+        <v>0.9914381395819487</v>
       </c>
       <c r="N10">
-        <v>0.9575757083419286</v>
+        <v>1.003274668619613</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.822110808780642</v>
+        <v>0.9906535521406715</v>
       </c>
       <c r="D11">
-        <v>1.029433179004557</v>
+        <v>1.028816400681361</v>
       </c>
       <c r="E11">
-        <v>0.8533979789262799</v>
+        <v>0.9953936374089645</v>
       </c>
       <c r="F11">
-        <v>0.7685805198214383</v>
+        <v>0.9858403664321082</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047962298172288</v>
+        <v>1.029555369739793</v>
       </c>
       <c r="J11">
-        <v>0.8613507116806649</v>
+        <v>0.9975575053047278</v>
       </c>
       <c r="K11">
-        <v>1.04382058515441</v>
+        <v>1.032410340936441</v>
       </c>
       <c r="L11">
-        <v>0.8717386533041505</v>
+        <v>0.9991181050659224</v>
       </c>
       <c r="M11">
-        <v>0.7897499701944014</v>
+        <v>0.9896039559150833</v>
       </c>
       <c r="N11">
-        <v>0.9531502434736543</v>
+        <v>1.002825974291096</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.816147462032038</v>
+        <v>0.9900913939142384</v>
       </c>
       <c r="D12">
-        <v>1.028962417322696</v>
+        <v>1.028730207336771</v>
       </c>
       <c r="E12">
-        <v>0.8484354199739315</v>
+        <v>0.9949050722402973</v>
       </c>
       <c r="F12">
-        <v>0.7604723983083388</v>
+        <v>0.9851061820500319</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047844905527682</v>
+        <v>1.029553719719501</v>
       </c>
       <c r="J12">
-        <v>0.8564466067570701</v>
+        <v>0.9970897735031714</v>
       </c>
       <c r="K12">
-        <v>1.043555011370238</v>
+        <v>1.032369811708945</v>
       </c>
       <c r="L12">
-        <v>0.8671837222984764</v>
+        <v>0.9986786442991347</v>
       </c>
       <c r="M12">
-        <v>0.7822737311778297</v>
+        <v>0.9889204816658863</v>
       </c>
       <c r="N12">
-        <v>0.9513755944304981</v>
+        <v>1.002658519692851</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8174503335351712</v>
+        <v>0.9902120595381855</v>
       </c>
       <c r="D13">
-        <v>1.029063594547695</v>
+        <v>1.028748699911505</v>
       </c>
       <c r="E13">
-        <v>0.8495190355796792</v>
+        <v>0.9950099418895325</v>
       </c>
       <c r="F13">
-        <v>0.7622479629256692</v>
+        <v>0.9852637674690576</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047870236572852</v>
+        <v>1.029554088495152</v>
       </c>
       <c r="J13">
-        <v>0.8575181667427565</v>
+        <v>0.9971901811635615</v>
       </c>
       <c r="K13">
-        <v>1.043612150892343</v>
+        <v>1.032378515607504</v>
       </c>
       <c r="L13">
-        <v>0.8681787164242508</v>
+        <v>0.9987729831400927</v>
       </c>
       <c r="M13">
-        <v>0.7839105310813642</v>
+        <v>0.9890671890455449</v>
       </c>
       <c r="N13">
-        <v>0.9517630793444642</v>
+        <v>1.00269447529006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8216282357642776</v>
+        <v>0.9906071202911284</v>
       </c>
       <c r="D14">
-        <v>1.029394354529478</v>
+        <v>1.028809277633772</v>
       </c>
       <c r="E14">
-        <v>0.8529961310811947</v>
+        <v>0.9953532842849065</v>
       </c>
       <c r="F14">
-        <v>0.7679261418563286</v>
+        <v>0.9857797236426981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047952662022529</v>
+        <v>1.029555240040406</v>
       </c>
       <c r="J14">
-        <v>0.8609539043508182</v>
+        <v>0.9975188773544146</v>
       </c>
       <c r="K14">
-        <v>1.043798710702483</v>
+        <v>1.032406995397466</v>
       </c>
       <c r="L14">
-        <v>0.8713699821141695</v>
+        <v>0.9990818119466078</v>
       </c>
       <c r="M14">
-        <v>0.7891464232352396</v>
+        <v>0.9895475046040829</v>
       </c>
       <c r="N14">
-        <v>0.953006530064851</v>
+        <v>1.002812148652134</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8241367417245742</v>
+        <v>0.9908502947745117</v>
       </c>
       <c r="D15">
-        <v>1.029597570092013</v>
+        <v>1.028846590368057</v>
       </c>
       <c r="E15">
-        <v>0.8550855105940532</v>
+        <v>0.9955646225320298</v>
       </c>
       <c r="F15">
-        <v>0.7713244543371323</v>
+        <v>0.9860973288618624</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048003008315739</v>
+        <v>1.029555906069242</v>
       </c>
       <c r="J15">
-        <v>0.8630164911271644</v>
+        <v>0.9977211715879997</v>
       </c>
       <c r="K15">
-        <v>1.043913150207114</v>
+        <v>1.032424512714591</v>
       </c>
       <c r="L15">
-        <v>0.8732865386559449</v>
+        <v>0.9992718785883367</v>
       </c>
       <c r="M15">
-        <v>0.7922810641505754</v>
+        <v>0.9898431519607224</v>
       </c>
       <c r="N15">
-        <v>0.9537537721844127</v>
+        <v>1.002884545935586</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8378734020456421</v>
+        <v>0.9922621254230287</v>
       </c>
       <c r="D16">
-        <v>1.030771612411837</v>
+        <v>1.029063593663636</v>
       </c>
       <c r="E16">
-        <v>0.8665484866922891</v>
+        <v>0.9967915900936591</v>
       </c>
       <c r="F16">
-        <v>0.7897988975200901</v>
+        <v>0.9879415300188076</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048289357867212</v>
+        <v>1.029559117975006</v>
       </c>
       <c r="J16">
-        <v>0.8743071605849554</v>
+        <v>0.9988951946573905</v>
       </c>
       <c r="K16">
-        <v>1.044571533557892</v>
+        <v>1.032526011298701</v>
       </c>
       <c r="L16">
-        <v>0.8837871662486106</v>
+        <v>1.00037493267123</v>
       </c>
       <c r="M16">
-        <v>0.8093341324063098</v>
+        <v>0.9915595675619321</v>
       </c>
       <c r="N16">
-        <v>0.9578536350966573</v>
+        <v>1.003304337241511</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8458473026192697</v>
+        <v>0.9931446518951077</v>
       </c>
       <c r="D17">
-        <v>1.03150038928846</v>
+        <v>1.029199559676678</v>
       </c>
       <c r="E17">
-        <v>0.8732187026322625</v>
+        <v>0.9975585341355973</v>
       </c>
       <c r="F17">
-        <v>0.8004279706468185</v>
+        <v>0.989094545834366</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048463099425805</v>
+        <v>1.029560546404202</v>
       </c>
       <c r="J17">
-        <v>0.8808578769797848</v>
+        <v>0.9996286609749276</v>
       </c>
       <c r="K17">
-        <v>1.044977760623805</v>
+        <v>1.032589272239751</v>
       </c>
       <c r="L17">
-        <v>0.8898863706398974</v>
+        <v>1.001064055618971</v>
       </c>
       <c r="M17">
-        <v>0.8191533571140593</v>
+        <v>0.992632438877268</v>
       </c>
       <c r="N17">
-        <v>0.9602390417804266</v>
+        <v>1.003566273402792</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8503037835804884</v>
+        <v>0.993658324721283</v>
       </c>
       <c r="D18">
-        <v>1.031922726886212</v>
+        <v>1.029278809869972</v>
       </c>
       <c r="E18">
-        <v>0.8769515674042555</v>
+        <v>0.9980049224938602</v>
       </c>
       <c r="F18">
-        <v>0.8063409913229036</v>
+        <v>0.9897657377869169</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048562326292331</v>
+        <v>1.029561167926103</v>
       </c>
       <c r="J18">
-        <v>0.8845178239282423</v>
+        <v>1.000055426526088</v>
       </c>
       <c r="K18">
-        <v>1.045212280040765</v>
+        <v>1.032626024211051</v>
       </c>
       <c r="L18">
-        <v>0.8932961251448813</v>
+        <v>1.001465017693937</v>
       </c>
       <c r="M18">
-        <v>0.8246179297758665</v>
+        <v>0.9932568864796915</v>
       </c>
       <c r="N18">
-        <v>0.9615737238664523</v>
+        <v>1.003718561842482</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8517931550493981</v>
+        <v>0.9938332907999199</v>
       </c>
       <c r="D19">
-        <v>1.032066269069261</v>
+        <v>1.029305822478735</v>
       </c>
       <c r="E19">
-        <v>0.8781998865437639</v>
+        <v>0.9981569685386646</v>
       </c>
       <c r="F19">
-        <v>0.8083130000306396</v>
+        <v>0.9899943717553462</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048595802006744</v>
+        <v>1.029561343914426</v>
       </c>
       <c r="J19">
-        <v>0.8857407999382942</v>
+        <v>1.000200765487866</v>
       </c>
       <c r="K19">
-        <v>1.04529183454428</v>
+        <v>1.032638530682611</v>
       </c>
       <c r="L19">
-        <v>0.8944358201472231</v>
+        <v>1.001601568606567</v>
       </c>
       <c r="M19">
-        <v>0.8264406743268582</v>
+        <v>0.9934695821076397</v>
       </c>
       <c r="N19">
-        <v>0.9620199996890119</v>
+        <v>1.003770404919007</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8450126103735027</v>
+        <v>0.9930500783226616</v>
       </c>
       <c r="D20">
-        <v>1.031422482822579</v>
+        <v>1.029184977633817</v>
       </c>
       <c r="E20">
-        <v>0.8725199366967191</v>
+        <v>0.9974763476563392</v>
       </c>
       <c r="F20">
-        <v>0.7993183482477777</v>
+        <v>0.9889709776493107</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048444677328424</v>
+        <v>1.029560415031907</v>
       </c>
       <c r="J20">
-        <v>0.8801722813837874</v>
+        <v>0.9995500762588492</v>
       </c>
       <c r="K20">
-        <v>1.044934427455083</v>
+        <v>1.032582500137903</v>
       </c>
       <c r="L20">
-        <v>0.8892478046597752</v>
+        <v>1.00099022216119</v>
       </c>
       <c r="M20">
-        <v>0.8181280455194887</v>
+        <v>0.9925174691326852</v>
       </c>
       <c r="N20">
-        <v>0.9599891732360095</v>
+        <v>1.003538221405817</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.820412006775995</v>
+        <v>0.9904908339126361</v>
       </c>
       <c r="D21">
-        <v>1.029297074179585</v>
+        <v>1.028791441332969</v>
       </c>
       <c r="E21">
-        <v>0.8519835572507025</v>
+        <v>0.9952522215828185</v>
       </c>
       <c r="F21">
-        <v>0.766275563943506</v>
+        <v>0.9856278484838727</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047928481211587</v>
+        <v>1.029554909994161</v>
       </c>
       <c r="J21">
-        <v>0.8599537928785125</v>
+        <v>0.9974221317641361</v>
       </c>
       <c r="K21">
-        <v>1.043743878990856</v>
+        <v>1.032398615060048</v>
       </c>
       <c r="L21">
-        <v>0.8704408751159127</v>
+        <v>0.9989909140153368</v>
       </c>
       <c r="M21">
-        <v>0.7876241860112012</v>
+        <v>0.9894061243963045</v>
       </c>
       <c r="N21">
-        <v>0.9526444084734996</v>
+        <v>1.002777518719308</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8021631997372421</v>
+        <v>0.9888715021031147</v>
       </c>
       <c r="D22">
-        <v>1.027935616601712</v>
+        <v>1.0285435183423</v>
       </c>
       <c r="E22">
-        <v>0.8368262616247208</v>
+        <v>0.9938448567504581</v>
       </c>
       <c r="F22">
-        <v>0.7412575693101737</v>
+        <v>0.9835131937094171</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047584783462657</v>
+        <v>1.029549549582982</v>
       </c>
       <c r="J22">
-        <v>0.8449410544495317</v>
+        <v>0.9960743677744542</v>
       </c>
       <c r="K22">
-        <v>1.04297325966296</v>
+        <v>1.032281686918612</v>
       </c>
       <c r="L22">
-        <v>0.8565102455187127</v>
+        <v>0.9977246088080334</v>
       </c>
       <c r="M22">
-        <v>0.7645761555060199</v>
+        <v>0.9874372626241351</v>
       </c>
       <c r="N22">
-        <v>0.9472255637578179</v>
+        <v>1.002294657611214</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8121754615663842</v>
+        <v>0.9897309308844535</v>
       </c>
       <c r="D23">
-        <v>1.028659752490994</v>
+        <v>1.028674992704237</v>
       </c>
       <c r="E23">
-        <v>0.845133961527772</v>
+        <v>0.9945917945827535</v>
       </c>
       <c r="F23">
-        <v>0.7550445770694533</v>
+        <v>0.9846354452697469</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047768804063363</v>
+        <v>1.029552570889732</v>
       </c>
       <c r="J23">
-        <v>0.8531794053343639</v>
+        <v>0.9967897932096135</v>
       </c>
       <c r="K23">
-        <v>1.043383882872786</v>
+        <v>1.032343796520178</v>
       </c>
       <c r="L23">
-        <v>0.8641509258453636</v>
+        <v>0.998396795041804</v>
       </c>
       <c r="M23">
-        <v>0.7772715407336497</v>
+        <v>0.9884822189254497</v>
       </c>
       <c r="N23">
-        <v>0.950195144714734</v>
+        <v>1.002551071293827</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8453903644654728</v>
+        <v>0.9930928154140612</v>
       </c>
       <c r="D24">
-        <v>1.031457693882517</v>
+        <v>1.029191566806253</v>
       </c>
       <c r="E24">
-        <v>0.872836159531739</v>
+        <v>0.9975134871437007</v>
       </c>
       <c r="F24">
-        <v>0.7998206111972429</v>
+        <v>0.9890268169374212</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048453008012139</v>
+        <v>1.029560475047559</v>
       </c>
       <c r="J24">
-        <v>0.8804825628386315</v>
+        <v>0.9995855885604165</v>
       </c>
       <c r="K24">
-        <v>1.044954015343837</v>
+        <v>1.032585560613934</v>
       </c>
       <c r="L24">
-        <v>0.8895367953982445</v>
+        <v>1.001023587384582</v>
       </c>
       <c r="M24">
-        <v>0.8185921394034554</v>
+        <v>0.9925694231479877</v>
       </c>
       <c r="N24">
-        <v>0.9601022508073533</v>
+        <v>1.003550898422906</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8762819016509319</v>
+        <v>0.9969515404821367</v>
       </c>
       <c r="D25">
-        <v>1.0345970248035</v>
+        <v>1.029788797171083</v>
       </c>
       <c r="E25">
-        <v>0.8987789664681771</v>
+        <v>1.000866570495859</v>
       </c>
       <c r="F25">
-        <v>0.8404730596758205</v>
+        <v>0.9940703804778075</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049164116523449</v>
+        <v>1.029561340424493</v>
       </c>
       <c r="J25">
-        <v>0.9058337813048243</v>
+        <v>1.002788820867278</v>
       </c>
       <c r="K25">
-        <v>1.046680998318037</v>
+        <v>1.032860338570589</v>
       </c>
       <c r="L25">
-        <v>0.9131820931949697</v>
+        <v>1.004033090616584</v>
       </c>
       <c r="M25">
-        <v>0.8561819366637217</v>
+        <v>0.9972601003021522</v>
       </c>
       <c r="N25">
-        <v>0.9693698015215532</v>
+        <v>1.004691803431707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_93/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_93/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9999970461623656</v>
+        <v>0.897257880973636</v>
       </c>
       <c r="D2">
-        <v>1.030263256528299</v>
+        <v>1.03701617855195</v>
       </c>
       <c r="E2">
-        <v>1.003512603051345</v>
+        <v>0.9164809909461363</v>
       </c>
       <c r="F2">
-        <v>0.9980539377174651</v>
+        <v>0.8676915893751157</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02955528997503</v>
+        <v>1.04966493641165</v>
       </c>
       <c r="J2">
-        <v>1.005312350954267</v>
+        <v>0.9230152531614805</v>
       </c>
       <c r="K2">
-        <v>1.033074774661431</v>
+        <v>1.047982825807516</v>
       </c>
       <c r="L2">
-        <v>1.006403886417997</v>
+        <v>0.9292410562046478</v>
       </c>
       <c r="M2">
-        <v>1.000962071010937</v>
+        <v>0.8813640088590843</v>
       </c>
       <c r="N2">
-        <v>1.005586813710726</v>
+        <v>0.9756730859597319</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002190696077171</v>
+        <v>0.91100854506542</v>
       </c>
       <c r="D3">
-        <v>1.030606612076188</v>
+        <v>1.038724435454634</v>
       </c>
       <c r="E3">
-        <v>1.005418250165748</v>
+        <v>0.9281191923950978</v>
       </c>
       <c r="F3">
-        <v>1.000925108801209</v>
+        <v>0.8854079376135564</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029546965970127</v>
+        <v>1.049990288268154</v>
       </c>
       <c r="J3">
-        <v>1.007127342732227</v>
+        <v>0.9342588236415326</v>
       </c>
       <c r="K3">
-        <v>1.033227698754684</v>
+        <v>1.04888469248286</v>
       </c>
       <c r="L3">
-        <v>1.008108944823934</v>
+        <v>0.9397626542125569</v>
       </c>
       <c r="M3">
-        <v>1.003628619941815</v>
+        <v>0.8977524455918253</v>
       </c>
       <c r="N3">
-        <v>1.006228286426888</v>
+        <v>0.9798014457847807</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003602290855779</v>
+        <v>0.9193582179583225</v>
       </c>
       <c r="D4">
-        <v>1.030828240658591</v>
+        <v>1.039807736879433</v>
       </c>
       <c r="E4">
-        <v>1.006644382404554</v>
+        <v>0.9351980826542216</v>
       </c>
       <c r="F4">
-        <v>1.002773591153557</v>
+        <v>0.8961262570290384</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029539753632458</v>
+        <v>1.050183150691575</v>
       </c>
       <c r="J4">
-        <v>1.008294031562883</v>
+        <v>0.9410767194369224</v>
       </c>
       <c r="K4">
-        <v>1.0333253549493</v>
+        <v>1.049448332132398</v>
       </c>
       <c r="L4">
-        <v>1.009204923891012</v>
+        <v>0.9461470959669308</v>
       </c>
       <c r="M4">
-        <v>1.005344591826161</v>
+        <v>0.9076642168343293</v>
       </c>
       <c r="N4">
-        <v>1.006639578476929</v>
+        <v>0.9823042353921551</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004193894425286</v>
+        <v>0.9227529152300891</v>
       </c>
       <c r="D5">
-        <v>1.030921280219693</v>
+        <v>1.04025791513086</v>
       </c>
       <c r="E5">
-        <v>1.007158223888107</v>
+        <v>0.9380785569793922</v>
       </c>
       <c r="F5">
-        <v>1.003548520839981</v>
+        <v>0.9004766131642453</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029536283262567</v>
+        <v>1.050260008368905</v>
       </c>
       <c r="J5">
-        <v>1.008782696506916</v>
+        <v>0.9438463311798626</v>
       </c>
       <c r="K5">
-        <v>1.0333660975551</v>
+        <v>1.049680534409773</v>
       </c>
       <c r="L5">
-        <v>1.009663960881819</v>
+        <v>0.9487414961901042</v>
       </c>
       <c r="M5">
-        <v>1.006063784403245</v>
+        <v>0.9116862249632113</v>
       </c>
       <c r="N5">
-        <v>1.006811593515251</v>
+        <v>0.9833205315127962</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004293121253613</v>
+        <v>0.9233165231143474</v>
       </c>
       <c r="D6">
-        <v>1.030936894093018</v>
+        <v>1.040333195749662</v>
       </c>
       <c r="E6">
-        <v>1.007244405997112</v>
+        <v>0.9385569226776487</v>
       </c>
       <c r="F6">
-        <v>1.003678509513614</v>
+        <v>0.9011985045062101</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029535674837201</v>
+        <v>1.050272665724133</v>
       </c>
       <c r="J6">
-        <v>1.008864640454659</v>
+        <v>0.9443060206251224</v>
       </c>
       <c r="K6">
-        <v>1.033372920065691</v>
+        <v>1.049719244074493</v>
       </c>
       <c r="L6">
-        <v>1.009740935846062</v>
+        <v>0.9491721514914342</v>
       </c>
       <c r="M6">
-        <v>1.006184412705869</v>
+        <v>0.9123535670892948</v>
       </c>
       <c r="N6">
-        <v>1.006840423675391</v>
+        <v>0.9834891815847008</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003610203023348</v>
+        <v>0.91940401359364</v>
       </c>
       <c r="D7">
-        <v>1.030829484383891</v>
+        <v>1.039813772728469</v>
       </c>
       <c r="E7">
-        <v>1.006651254710766</v>
+        <v>0.9352369320688888</v>
       </c>
       <c r="F7">
-        <v>1.002783954247485</v>
+        <v>0.8961849716740558</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029539708984831</v>
+        <v>1.050184194246958</v>
       </c>
       <c r="J7">
-        <v>1.008300568190578</v>
+        <v>0.9411140917510641</v>
       </c>
       <c r="K7">
-        <v>1.033325900582437</v>
+        <v>1.049451453476574</v>
       </c>
       <c r="L7">
-        <v>1.009211064246002</v>
+        <v>0.946182100771346</v>
       </c>
       <c r="M7">
-        <v>1.005354210280489</v>
+        <v>0.9077185041156115</v>
       </c>
       <c r="N7">
-        <v>1.006641880437511</v>
+        <v>0.9823179509237574</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.000740052902658</v>
+        <v>0.9020289927595295</v>
       </c>
       <c r="D8">
-        <v>1.030379406564799</v>
+        <v>1.03759808224953</v>
       </c>
       <c r="E8">
-        <v>1.004158087951371</v>
+        <v>0.9205162565860335</v>
       </c>
       <c r="F8">
-        <v>0.9990262421512628</v>
+        <v>0.873848694229801</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02955285428455</v>
+        <v>1.049778551927297</v>
       </c>
       <c r="J8">
-        <v>1.005927361266509</v>
+        <v>0.9269184689326908</v>
       </c>
       <c r="K8">
-        <v>1.033126723317438</v>
+        <v>1.048291754076944</v>
       </c>
       <c r="L8">
-        <v>1.006981654404119</v>
+        <v>0.9328925813043585</v>
       </c>
       <c r="M8">
-        <v>1.001865241835927</v>
+        <v>0.8870601362853664</v>
       </c>
       <c r="N8">
-        <v>1.005804394172819</v>
+        <v>0.9771061905313941</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9956202764081897</v>
+        <v>0.8662636881771463</v>
       </c>
       <c r="D9">
-        <v>1.029582245551908</v>
+        <v>1.03352302800109</v>
       </c>
       <c r="E9">
-        <v>0.9997098096606482</v>
+        <v>0.890348210597147</v>
       </c>
       <c r="F9">
-        <v>0.9923299142558761</v>
+        <v>0.8273730294234332</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02956208100376</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J9">
-        <v>1.001684422044947</v>
+        <v>0.8976176628151544</v>
       </c>
       <c r="K9">
-        <v>1.032765901988229</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L9">
-        <v>1.002995500289088</v>
+        <v>0.9055119080682121</v>
       </c>
       <c r="M9">
-        <v>0.9956418554368396</v>
+        <v>0.8440642989151731</v>
       </c>
       <c r="N9">
-        <v>1.004299033365596</v>
+        <v>0.9663607908343529</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9921622425845256</v>
+        <v>0.8369435302844472</v>
       </c>
       <c r="D10">
-        <v>1.029048220613477</v>
+        <v>1.030688880812371</v>
       </c>
       <c r="E10">
-        <v>0.9967047873794241</v>
+        <v>0.8657714029518843</v>
       </c>
       <c r="F10">
-        <v>0.9878110444644356</v>
+        <v>0.7885550794316867</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029558927936093</v>
+        <v>1.04826943707582</v>
       </c>
       <c r="J10">
-        <v>0.9988121622532348</v>
+        <v>0.8735430889903428</v>
       </c>
       <c r="K10">
-        <v>1.032518842347417</v>
+        <v>1.04452529702452</v>
       </c>
       <c r="L10">
-        <v>1.000296919877218</v>
+        <v>0.8830760776810178</v>
       </c>
       <c r="M10">
-        <v>0.9914381395819487</v>
+        <v>0.808185429139857</v>
       </c>
       <c r="N10">
-        <v>1.003274668619613</v>
+        <v>0.9575757083419285</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9906535521406715</v>
+        <v>0.8221108087806427</v>
       </c>
       <c r="D11">
-        <v>1.028816400681361</v>
+        <v>1.029433179004557</v>
       </c>
       <c r="E11">
-        <v>0.9953936374089645</v>
+        <v>0.8533979789262804</v>
       </c>
       <c r="F11">
-        <v>0.9858403664321082</v>
+        <v>0.7685805198214392</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029555369739793</v>
+        <v>1.047962298172288</v>
       </c>
       <c r="J11">
-        <v>0.9975575053047278</v>
+        <v>0.8613507116806652</v>
       </c>
       <c r="K11">
-        <v>1.032410340936441</v>
+        <v>1.04382058515441</v>
       </c>
       <c r="L11">
-        <v>0.9991181050659224</v>
+        <v>0.871738653304151</v>
       </c>
       <c r="M11">
-        <v>0.9896039559150833</v>
+        <v>0.7897499701944023</v>
       </c>
       <c r="N11">
-        <v>1.002825974291096</v>
+        <v>0.9531502434736544</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9900913939142384</v>
+        <v>0.8161474620320386</v>
       </c>
       <c r="D12">
-        <v>1.028730207336771</v>
+        <v>1.028962417322696</v>
       </c>
       <c r="E12">
-        <v>0.9949050722402973</v>
+        <v>0.8484354199739319</v>
       </c>
       <c r="F12">
-        <v>0.9851061820500319</v>
+        <v>0.7604723983083391</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029553719719501</v>
+        <v>1.047844905527682</v>
       </c>
       <c r="J12">
-        <v>0.9970897735031714</v>
+        <v>0.8564466067570706</v>
       </c>
       <c r="K12">
-        <v>1.032369811708945</v>
+        <v>1.043555011370238</v>
       </c>
       <c r="L12">
-        <v>0.9986786442991347</v>
+        <v>0.8671837222984768</v>
       </c>
       <c r="M12">
-        <v>0.9889204816658863</v>
+        <v>0.7822737311778299</v>
       </c>
       <c r="N12">
-        <v>1.002658519692851</v>
+        <v>0.9513755944304982</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9902120595381855</v>
+        <v>0.817450333535172</v>
       </c>
       <c r="D13">
-        <v>1.028748699911505</v>
+        <v>1.029063594547695</v>
       </c>
       <c r="E13">
-        <v>0.9950099418895325</v>
+        <v>0.8495190355796802</v>
       </c>
       <c r="F13">
-        <v>0.9852637674690576</v>
+        <v>0.7622479629256701</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029554088495152</v>
+        <v>1.047870236572852</v>
       </c>
       <c r="J13">
-        <v>0.9971901811635615</v>
+        <v>0.8575181667427573</v>
       </c>
       <c r="K13">
-        <v>1.032378515607504</v>
+        <v>1.043612150892343</v>
       </c>
       <c r="L13">
-        <v>0.9987729831400927</v>
+        <v>0.8681787164242518</v>
       </c>
       <c r="M13">
-        <v>0.9890671890455449</v>
+        <v>0.7839105310813651</v>
       </c>
       <c r="N13">
-        <v>1.00269447529006</v>
+        <v>0.9517630793444647</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9906071202911284</v>
+        <v>0.8216282357642775</v>
       </c>
       <c r="D14">
-        <v>1.028809277633772</v>
+        <v>1.029394354529478</v>
       </c>
       <c r="E14">
-        <v>0.9953532842849065</v>
+        <v>0.8529961310811949</v>
       </c>
       <c r="F14">
-        <v>0.9857797236426981</v>
+        <v>0.7679261418563279</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029555240040406</v>
+        <v>1.047952662022529</v>
       </c>
       <c r="J14">
-        <v>0.9975188773544146</v>
+        <v>0.8609539043508181</v>
       </c>
       <c r="K14">
-        <v>1.032406995397466</v>
+        <v>1.043798710702484</v>
       </c>
       <c r="L14">
-        <v>0.9990818119466078</v>
+        <v>0.8713699821141694</v>
       </c>
       <c r="M14">
-        <v>0.9895475046040829</v>
+        <v>0.7891464232352391</v>
       </c>
       <c r="N14">
-        <v>1.002812148652134</v>
+        <v>0.9530065300648509</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9908502947745117</v>
+        <v>0.8241367417245762</v>
       </c>
       <c r="D15">
-        <v>1.028846590368057</v>
+        <v>1.029597570092013</v>
       </c>
       <c r="E15">
-        <v>0.9955646225320298</v>
+        <v>0.8550855105940549</v>
       </c>
       <c r="F15">
-        <v>0.9860973288618624</v>
+        <v>0.7713244543371345</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029555906069242</v>
+        <v>1.04800300831574</v>
       </c>
       <c r="J15">
-        <v>0.9977211715879997</v>
+        <v>0.8630164911271663</v>
       </c>
       <c r="K15">
-        <v>1.032424512714591</v>
+        <v>1.043913150207114</v>
       </c>
       <c r="L15">
-        <v>0.9992718785883367</v>
+        <v>0.8732865386559466</v>
       </c>
       <c r="M15">
-        <v>0.9898431519607224</v>
+        <v>0.7922810641505774</v>
       </c>
       <c r="N15">
-        <v>1.002884545935586</v>
+        <v>0.9537537721844135</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9922621254230287</v>
+        <v>0.8378734020456414</v>
       </c>
       <c r="D16">
-        <v>1.029063593663636</v>
+        <v>1.030771612411838</v>
       </c>
       <c r="E16">
-        <v>0.9967915900936591</v>
+        <v>0.8665484866922887</v>
       </c>
       <c r="F16">
-        <v>0.9879415300188076</v>
+        <v>0.7897988975200898</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029559117975006</v>
+        <v>1.048289357867212</v>
       </c>
       <c r="J16">
-        <v>0.9988951946573905</v>
+        <v>0.8743071605849547</v>
       </c>
       <c r="K16">
-        <v>1.032526011298701</v>
+        <v>1.044571533557892</v>
       </c>
       <c r="L16">
-        <v>1.00037493267123</v>
+        <v>0.8837871662486101</v>
       </c>
       <c r="M16">
-        <v>0.9915595675619321</v>
+        <v>0.8093341324063094</v>
       </c>
       <c r="N16">
-        <v>1.003304337241511</v>
+        <v>0.957853635096657</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9931446518951077</v>
+        <v>0.8458473026192693</v>
       </c>
       <c r="D17">
-        <v>1.029199559676678</v>
+        <v>1.031500389288461</v>
       </c>
       <c r="E17">
-        <v>0.9975585341355973</v>
+        <v>0.8732187026322624</v>
       </c>
       <c r="F17">
-        <v>0.989094545834366</v>
+        <v>0.8004279706468186</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029560546404202</v>
+        <v>1.048463099425805</v>
       </c>
       <c r="J17">
-        <v>0.9996286609749276</v>
+        <v>0.8808578769797847</v>
       </c>
       <c r="K17">
-        <v>1.032589272239751</v>
+        <v>1.044977760623805</v>
       </c>
       <c r="L17">
-        <v>1.001064055618971</v>
+        <v>0.8898863706398975</v>
       </c>
       <c r="M17">
-        <v>0.992632438877268</v>
+        <v>0.8191533571140596</v>
       </c>
       <c r="N17">
-        <v>1.003566273402792</v>
+        <v>0.9602390417804266</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.993658324721283</v>
+        <v>0.8503037835804886</v>
       </c>
       <c r="D18">
-        <v>1.029278809869972</v>
+        <v>1.031922726886212</v>
       </c>
       <c r="E18">
-        <v>0.9980049224938602</v>
+        <v>0.8769515674042556</v>
       </c>
       <c r="F18">
-        <v>0.9897657377869169</v>
+        <v>0.8063409913229032</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029561167926103</v>
+        <v>1.048562326292331</v>
       </c>
       <c r="J18">
-        <v>1.000055426526088</v>
+        <v>0.8845178239282425</v>
       </c>
       <c r="K18">
-        <v>1.032626024211051</v>
+        <v>1.045212280040765</v>
       </c>
       <c r="L18">
-        <v>1.001465017693937</v>
+        <v>0.8932961251448815</v>
       </c>
       <c r="M18">
-        <v>0.9932568864796915</v>
+        <v>0.8246179297758663</v>
       </c>
       <c r="N18">
-        <v>1.003718561842482</v>
+        <v>0.9615737238664523</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9938332907999199</v>
+        <v>0.8517931550493981</v>
       </c>
       <c r="D19">
-        <v>1.029305822478735</v>
+        <v>1.032066269069261</v>
       </c>
       <c r="E19">
-        <v>0.9981569685386646</v>
+        <v>0.878199886543764</v>
       </c>
       <c r="F19">
-        <v>0.9899943717553462</v>
+        <v>0.8083130000306398</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029561343914426</v>
+        <v>1.048595802006744</v>
       </c>
       <c r="J19">
-        <v>1.000200765487866</v>
+        <v>0.8857407999382942</v>
       </c>
       <c r="K19">
-        <v>1.032638530682611</v>
+        <v>1.04529183454428</v>
       </c>
       <c r="L19">
-        <v>1.001601568606567</v>
+        <v>0.8944358201472232</v>
       </c>
       <c r="M19">
-        <v>0.9934695821076397</v>
+        <v>0.8264406743268583</v>
       </c>
       <c r="N19">
-        <v>1.003770404919007</v>
+        <v>0.9620199996890118</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9930500783226616</v>
+        <v>0.8450126103735035</v>
       </c>
       <c r="D20">
-        <v>1.029184977633817</v>
+        <v>1.031422482822579</v>
       </c>
       <c r="E20">
-        <v>0.9974763476563392</v>
+        <v>0.8725199366967197</v>
       </c>
       <c r="F20">
-        <v>0.9889709776493107</v>
+        <v>0.7993183482477785</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029560415031907</v>
+        <v>1.048444677328424</v>
       </c>
       <c r="J20">
-        <v>0.9995500762588492</v>
+        <v>0.8801722813837882</v>
       </c>
       <c r="K20">
-        <v>1.032582500137903</v>
+        <v>1.044934427455083</v>
       </c>
       <c r="L20">
-        <v>1.00099022216119</v>
+        <v>0.8892478046597759</v>
       </c>
       <c r="M20">
-        <v>0.9925174691326852</v>
+        <v>0.8181280455194896</v>
       </c>
       <c r="N20">
-        <v>1.003538221405817</v>
+        <v>0.9599891732360099</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9904908339126361</v>
+        <v>0.8204120067759954</v>
       </c>
       <c r="D21">
-        <v>1.028791441332969</v>
+        <v>1.029297074179585</v>
       </c>
       <c r="E21">
-        <v>0.9952522215828185</v>
+        <v>0.8519835572507026</v>
       </c>
       <c r="F21">
-        <v>0.9856278484838727</v>
+        <v>0.7662755639435066</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029554909994161</v>
+        <v>1.047928481211587</v>
       </c>
       <c r="J21">
-        <v>0.9974221317641361</v>
+        <v>0.8599537928785127</v>
       </c>
       <c r="K21">
-        <v>1.032398615060048</v>
+        <v>1.043743878990856</v>
       </c>
       <c r="L21">
-        <v>0.9989909140153368</v>
+        <v>0.8704408751159129</v>
       </c>
       <c r="M21">
-        <v>0.9894061243963045</v>
+        <v>0.7876241860112015</v>
       </c>
       <c r="N21">
-        <v>1.002777518719308</v>
+        <v>0.9526444084734996</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9888715021031147</v>
+        <v>0.8021631997372402</v>
       </c>
       <c r="D22">
-        <v>1.0285435183423</v>
+        <v>1.027935616601712</v>
       </c>
       <c r="E22">
-        <v>0.9938448567504581</v>
+        <v>0.8368262616247195</v>
       </c>
       <c r="F22">
-        <v>0.9835131937094171</v>
+        <v>0.7412575693101711</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029549549582982</v>
+        <v>1.047584783462657</v>
       </c>
       <c r="J22">
-        <v>0.9960743677744542</v>
+        <v>0.8449410544495302</v>
       </c>
       <c r="K22">
-        <v>1.032281686918612</v>
+        <v>1.04297325966296</v>
       </c>
       <c r="L22">
-        <v>0.9977246088080334</v>
+        <v>0.8565102455187114</v>
       </c>
       <c r="M22">
-        <v>0.9874372626241351</v>
+        <v>0.7645761555060175</v>
       </c>
       <c r="N22">
-        <v>1.002294657611214</v>
+        <v>0.9472255637578173</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9897309308844535</v>
+        <v>0.8121754615663841</v>
       </c>
       <c r="D23">
-        <v>1.028674992704237</v>
+        <v>1.028659752490994</v>
       </c>
       <c r="E23">
-        <v>0.9945917945827535</v>
+        <v>0.845133961527772</v>
       </c>
       <c r="F23">
-        <v>0.9846354452697469</v>
+        <v>0.7550445770694533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029552570889732</v>
+        <v>1.047768804063363</v>
       </c>
       <c r="J23">
-        <v>0.9967897932096135</v>
+        <v>0.8531794053343639</v>
       </c>
       <c r="K23">
-        <v>1.032343796520178</v>
+        <v>1.043383882872786</v>
       </c>
       <c r="L23">
-        <v>0.998396795041804</v>
+        <v>0.8641509258453635</v>
       </c>
       <c r="M23">
-        <v>0.9884822189254497</v>
+        <v>0.7772715407336498</v>
       </c>
       <c r="N23">
-        <v>1.002551071293827</v>
+        <v>0.9501951447147337</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9930928154140612</v>
+        <v>0.8453903644654739</v>
       </c>
       <c r="D24">
-        <v>1.029191566806253</v>
+        <v>1.031457693882518</v>
       </c>
       <c r="E24">
-        <v>0.9975134871437007</v>
+        <v>0.8728361595317403</v>
       </c>
       <c r="F24">
-        <v>0.9890268169374212</v>
+        <v>0.7998206111972448</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029560475047559</v>
+        <v>1.04845300801214</v>
       </c>
       <c r="J24">
-        <v>0.9995855885604165</v>
+        <v>0.8804825628386329</v>
       </c>
       <c r="K24">
-        <v>1.032585560613934</v>
+        <v>1.044954015343838</v>
       </c>
       <c r="L24">
-        <v>1.001023587384582</v>
+        <v>0.8895367953982457</v>
       </c>
       <c r="M24">
-        <v>0.9925694231479877</v>
+        <v>0.8185921394034571</v>
       </c>
       <c r="N24">
-        <v>1.003550898422906</v>
+        <v>0.9601022508073539</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9969515404821367</v>
+        <v>0.8762819016509313</v>
       </c>
       <c r="D25">
-        <v>1.029788797171083</v>
+        <v>1.0345970248035</v>
       </c>
       <c r="E25">
-        <v>1.000866570495859</v>
+        <v>0.8987789664681763</v>
       </c>
       <c r="F25">
-        <v>0.9940703804778075</v>
+        <v>0.8404730596758199</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029561340424493</v>
+        <v>1.049164116523449</v>
       </c>
       <c r="J25">
-        <v>1.002788820867278</v>
+        <v>0.9058337813048236</v>
       </c>
       <c r="K25">
-        <v>1.032860338570589</v>
+        <v>1.046680998318037</v>
       </c>
       <c r="L25">
-        <v>1.004033090616584</v>
+        <v>0.9131820931949688</v>
       </c>
       <c r="M25">
-        <v>0.9972601003021522</v>
+        <v>0.8561819366637211</v>
       </c>
       <c r="N25">
-        <v>1.004691803431707</v>
+        <v>0.9693698015215531</v>
       </c>
     </row>
   </sheetData>
